--- a/source.xlsx
+++ b/source.xlsx
@@ -1,55 +1,173 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferreira/awstranslate/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A617A-555B-1D43-B329-3118D72FF5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="source" sheetId="1" r:id="rId4"/>
+    <sheet name="source" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>reviewUrl</t>
   </si>
   <si>
-    <t>asin</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/customer-reviews/R1SSPFJT2MLWZK/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B084XBSCXX</t>
-  </si>
-  <si>
-    <t>ASIN1</t>
-  </si>
-  <si>
-    <t>ASIN2</t>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/RH3G4PKH2MAX6/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R3IR2Y7AB0FQ3L/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R1R8610VB3NWV4/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>Plant Based</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R13SQOLE8KOU8D/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/ROJE14LXDQHU2/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R10TT946GCWMJ6/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R32RKSNLX0NQXY/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/RJKQ2T9FZ4OKX/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R1MZ5W69WPBY56/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LCC115H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R2CQ4DG13ZHAQH/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R14U4VV5YFI66U/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R1IQB9FAZNQQFW/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R3AX3ZY1H6FFYI/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R2AE6Q02BNLHCE/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/RIO6MLQ9G57AW/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/RCFOJUHQOV164/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R1QOEBLPVX9VVJ/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9K</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R354ZPCW0X1QSV/ref=cm_cr_othr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9K</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>starRating</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/RWX02PFKCSNM2/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC1W9QD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/RSG8CALZ0582T/ref=cm_cr_srp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC9X9MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R6TSRSE4IM6FE/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC9X9MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R2ZRSNTD1CF574/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC9X9MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/ROJE14LXDQHU2/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC9X9MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R1A8UN7VE237IP/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC9X9MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R2J1IBM0R3XB6/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC9X9MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R1R53XHDA0867J/ref=cm_cr_othr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDVGW5B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R2L6VITY3ISPDG/ref=cm_cr_othr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDVGW5B</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/RRVHWLDJ9WECX/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC1W9QD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R1PFJI2EGGEPG3/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC1W9QD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R2UJ5O2BNY8GVE/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC1W9QD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/RJDH7GX99JIHA/ref=cm_cr_othr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDVGW5B</t>
+  </si>
+  <si>
+    <t>Absorption</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R167QI381UWHI9/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
+  </si>
+  <si>
+    <t>Softness &amp; comfort</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R22A27GBA89X9L/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC1W9QD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/customer-reviews/R3OXHFPIJ4JSQX/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07LC1W9QD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R7KFTQQT3CND3/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/RNWUAW0D5UDDD/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9M</t>
+  </si>
+  <si>
+    <t>https://www.amazon.fr/gp/customer-reviews/R2B8LH85W6NEKQ/ref=cm_cr_getr_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDKWP9M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -57,45 +175,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -285,48 +402,520 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="93.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7D537081-B624-CD4B-B6A4-261CDB518EC4}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3F04B9-5919-C341-854B-B7625B2C976C}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{9CA37BC7-2C97-1C4D-8773-BDCA25F3957C}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{62249374-C2B1-F048-A086-6F1C7F51FB03}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{34DC8BA2-A9BE-BD4E-9E13-9A0DA9F2703B}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{26E62D8E-F787-A145-A527-5C21C4D461B6}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{8A7310CA-3077-1C4D-8B2D-212B50A2807D}"/>
+    <hyperlink ref="A18" r:id="rId6" xr:uid="{A4A7FAD0-9ECD-5F4E-A8AF-DD5E8DCBCA8C}"/>
+    <hyperlink ref="A19" r:id="rId7" xr:uid="{D0F43A1C-EDA2-8B49-9EEB-87A7FAAC359D}"/>
+    <hyperlink ref="A20" r:id="rId8" xr:uid="{F8C99E63-A14D-BE45-8C73-564349FC1C56}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{610FAD59-0B6A-B74D-92B3-B592F3CA2D81}"/>
+    <hyperlink ref="A22" r:id="rId10" xr:uid="{F77C2891-FD10-0042-83B7-18241261B1B0}"/>
+    <hyperlink ref="A23" r:id="rId11" xr:uid="{9BCC6A2B-465F-CC4C-8B36-42955B7A2FB7}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{1A3E04A5-5E83-A34E-8A3B-3E0EF19CF7E9}"/>
+    <hyperlink ref="A25" r:id="rId13" xr:uid="{118A5A00-FAC2-CF47-AD58-DE8A5C840DFA}"/>
+    <hyperlink ref="A26" r:id="rId14" xr:uid="{1B8331F6-77A2-684E-BEB6-7C9D660CF11D}"/>
+    <hyperlink ref="A27" r:id="rId15" xr:uid="{A0213A70-2878-8F4F-B0D0-207B1B841681}"/>
+    <hyperlink ref="A28" r:id="rId16" xr:uid="{3207129F-E870-D246-AD5B-D41DACE86E20}"/>
+    <hyperlink ref="A29" r:id="rId17" xr:uid="{4B6B4267-3DE8-284C-A5F3-D130629F671E}"/>
+    <hyperlink ref="A31" r:id="rId18" xr:uid="{F497C87F-B98F-664F-8F4A-602795EFA727}"/>
+    <hyperlink ref="A32" r:id="rId19" xr:uid="{0B4CE499-0569-C940-BCA3-AB0153E54450}"/>
+    <hyperlink ref="A33" r:id="rId20" xr:uid="{F1AD7CB7-991E-094E-8E67-647DA65CC0A8}"/>
+    <hyperlink ref="A34" r:id="rId21" xr:uid="{997E9B03-674C-3744-B060-503BC7FB00BB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/source.xlsx
+++ b/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oferreira/awstranslate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3A617A-555B-1D43-B329-3118D72FF5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B85864-6900-D548-B9FA-153821E73B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>reviewUrl</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>https://www.amazon.fr/gp/customer-reviews/R1IQB9FAZNQQFW/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
-  </si>
-  <si>
-    <t>https://www.amazon.fr/gp/customer-reviews/R3AX3ZY1H6FFYI/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
   </si>
   <si>
     <t>https://www.amazon.fr/gp/customer-reviews/R2AE6Q02BNLHCE/ref=cm_cr_arp_d_rvw_ttl?ie=UTF8&amp;ASIN=B07FDQRLVS</t>
@@ -412,10 +409,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A2" sqref="A2:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -428,26 +425,464 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7D537081-B624-CD4B-B6A4-261CDB518EC4}"/>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{43C5E0AE-5CF1-9142-99F7-14A205254DBB}"/>
+    <hyperlink ref="A34" r:id="rId2" xr:uid="{DF9328DB-D860-944E-9889-EA9EC877919C}"/>
+    <hyperlink ref="A33" r:id="rId3" xr:uid="{3CE68F4B-E007-D243-9C6F-31BFA9F13797}"/>
+    <hyperlink ref="A32" r:id="rId4" xr:uid="{2F317664-602E-ED41-90E2-27B7487D3882}"/>
+    <hyperlink ref="A30" r:id="rId5" xr:uid="{B2998523-798A-CE4E-9A01-13329E5F7933}"/>
+    <hyperlink ref="A29" r:id="rId6" xr:uid="{86CAB30D-7D73-6848-805C-48228EAEC52A}"/>
+    <hyperlink ref="A28" r:id="rId7" xr:uid="{02E8122B-E568-674E-9794-DF8D49B3F14D}"/>
+    <hyperlink ref="A27" r:id="rId8" xr:uid="{ABAD5BEF-F050-474C-9302-7507028556B7}"/>
+    <hyperlink ref="A26" r:id="rId9" xr:uid="{8563ED04-064C-D447-A978-0E0D44E62490}"/>
+    <hyperlink ref="A25" r:id="rId10" xr:uid="{E0244734-5A38-814A-92B9-480499AD8964}"/>
+    <hyperlink ref="A24" r:id="rId11" xr:uid="{19011368-A24D-564D-8F71-6C27A62FC581}"/>
+    <hyperlink ref="A23" r:id="rId12" xr:uid="{B10063D1-C417-F74B-B1FC-63C61AD19C0F}"/>
+    <hyperlink ref="A22" r:id="rId13" xr:uid="{4DA7E1E2-0602-5247-A16B-3495AD6465BE}"/>
+    <hyperlink ref="A21" r:id="rId14" xr:uid="{9C9EECEE-DD48-E443-A504-BBCD2B3C6349}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{0C4E2C3A-5855-7A43-B82A-9A5AAFBA2645}"/>
+    <hyperlink ref="A19" r:id="rId16" xr:uid="{81F9940D-B87F-6044-A5E9-9961644A900D}"/>
+    <hyperlink ref="A14" r:id="rId17" xr:uid="{1C2A1A78-208A-CF48-A5A5-56C48AB0FF79}"/>
+    <hyperlink ref="A13" r:id="rId18" xr:uid="{EBAD3837-A216-3D49-9112-0A47582E9524}"/>
+    <hyperlink ref="A12" r:id="rId19" xr:uid="{A12A16F4-0CFB-694F-9193-C28BF876CC34}"/>
+    <hyperlink ref="A11" r:id="rId20" xr:uid="{3D679E9A-5056-224F-AE1F-40A5DC8CCB6A}"/>
+    <hyperlink ref="A2" r:id="rId21" xr:uid="{6D73B2CD-F9D2-5C43-A5D9-D7210875411B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -462,10 +897,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -476,7 +914,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -487,7 +925,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -498,7 +936,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -509,7 +947,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -520,7 +958,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -531,7 +969,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -542,7 +980,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -553,7 +991,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -567,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -578,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -586,10 +1024,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -597,10 +1035,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -608,10 +1046,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -619,10 +1057,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -630,10 +1068,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -641,10 +1079,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
@@ -655,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -666,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>5</v>
@@ -677,7 +1115,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -685,10 +1123,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -696,10 +1134,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -707,10 +1145,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -718,10 +1156,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
@@ -732,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -743,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -754,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -765,7 +1203,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -776,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -784,10 +1222,10 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -798,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -809,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
@@ -820,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
@@ -831,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2">
         <v>5</v>
@@ -839,10 +1277,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -850,10 +1288,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
@@ -861,10 +1299,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -872,10 +1310,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -883,10 +1321,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
@@ -894,27 +1332,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{9CA37BC7-2C97-1C4D-8773-BDCA25F3957C}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{62249374-C2B1-F048-A086-6F1C7F51FB03}"/>
-    <hyperlink ref="A11" r:id="rId3" xr:uid="{34DC8BA2-A9BE-BD4E-9E13-9A0DA9F2703B}"/>
-    <hyperlink ref="A12" r:id="rId4" xr:uid="{26E62D8E-F787-A145-A527-5C21C4D461B6}"/>
-    <hyperlink ref="A13" r:id="rId5" xr:uid="{8A7310CA-3077-1C4D-8B2D-212B50A2807D}"/>
-    <hyperlink ref="A18" r:id="rId6" xr:uid="{A4A7FAD0-9ECD-5F4E-A8AF-DD5E8DCBCA8C}"/>
-    <hyperlink ref="A19" r:id="rId7" xr:uid="{D0F43A1C-EDA2-8B49-9EEB-87A7FAAC359D}"/>
-    <hyperlink ref="A20" r:id="rId8" xr:uid="{F8C99E63-A14D-BE45-8C73-564349FC1C56}"/>
-    <hyperlink ref="A21" r:id="rId9" xr:uid="{610FAD59-0B6A-B74D-92B3-B592F3CA2D81}"/>
-    <hyperlink ref="A22" r:id="rId10" xr:uid="{F77C2891-FD10-0042-83B7-18241261B1B0}"/>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{997E9B03-674C-3744-B060-503BC7FB00BB}"/>
+    <hyperlink ref="A33" r:id="rId2" xr:uid="{F1AD7CB7-991E-094E-8E67-647DA65CC0A8}"/>
+    <hyperlink ref="A32" r:id="rId3" xr:uid="{0B4CE499-0569-C940-BCA3-AB0153E54450}"/>
+    <hyperlink ref="A31" r:id="rId4" xr:uid="{F497C87F-B98F-664F-8F4A-602795EFA727}"/>
+    <hyperlink ref="A29" r:id="rId5" xr:uid="{4B6B4267-3DE8-284C-A5F3-D130629F671E}"/>
+    <hyperlink ref="A28" r:id="rId6" xr:uid="{3207129F-E870-D246-AD5B-D41DACE86E20}"/>
+    <hyperlink ref="A27" r:id="rId7" xr:uid="{A0213A70-2878-8F4F-B0D0-207B1B841681}"/>
+    <hyperlink ref="A26" r:id="rId8" xr:uid="{1B8331F6-77A2-684E-BEB6-7C9D660CF11D}"/>
+    <hyperlink ref="A25" r:id="rId9" xr:uid="{118A5A00-FAC2-CF47-AD58-DE8A5C840DFA}"/>
+    <hyperlink ref="A24" r:id="rId10" xr:uid="{1A3E04A5-5E83-A34E-8A3B-3E0EF19CF7E9}"/>
     <hyperlink ref="A23" r:id="rId11" xr:uid="{9BCC6A2B-465F-CC4C-8B36-42955B7A2FB7}"/>
-    <hyperlink ref="A24" r:id="rId12" xr:uid="{1A3E04A5-5E83-A34E-8A3B-3E0EF19CF7E9}"/>
-    <hyperlink ref="A25" r:id="rId13" xr:uid="{118A5A00-FAC2-CF47-AD58-DE8A5C840DFA}"/>
-    <hyperlink ref="A26" r:id="rId14" xr:uid="{1B8331F6-77A2-684E-BEB6-7C9D660CF11D}"/>
-    <hyperlink ref="A27" r:id="rId15" xr:uid="{A0213A70-2878-8F4F-B0D0-207B1B841681}"/>
-    <hyperlink ref="A28" r:id="rId16" xr:uid="{3207129F-E870-D246-AD5B-D41DACE86E20}"/>
-    <hyperlink ref="A29" r:id="rId17" xr:uid="{4B6B4267-3DE8-284C-A5F3-D130629F671E}"/>
-    <hyperlink ref="A31" r:id="rId18" xr:uid="{F497C87F-B98F-664F-8F4A-602795EFA727}"/>
-    <hyperlink ref="A32" r:id="rId19" xr:uid="{0B4CE499-0569-C940-BCA3-AB0153E54450}"/>
-    <hyperlink ref="A33" r:id="rId20" xr:uid="{F1AD7CB7-991E-094E-8E67-647DA65CC0A8}"/>
-    <hyperlink ref="A34" r:id="rId21" xr:uid="{997E9B03-674C-3744-B060-503BC7FB00BB}"/>
+    <hyperlink ref="A22" r:id="rId12" xr:uid="{F77C2891-FD10-0042-83B7-18241261B1B0}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{610FAD59-0B6A-B74D-92B3-B592F3CA2D81}"/>
+    <hyperlink ref="A20" r:id="rId14" xr:uid="{F8C99E63-A14D-BE45-8C73-564349FC1C56}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{D0F43A1C-EDA2-8B49-9EEB-87A7FAAC359D}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{A4A7FAD0-9ECD-5F4E-A8AF-DD5E8DCBCA8C}"/>
+    <hyperlink ref="A13" r:id="rId17" xr:uid="{8A7310CA-3077-1C4D-8B2D-212B50A2807D}"/>
+    <hyperlink ref="A12" r:id="rId18" xr:uid="{26E62D8E-F787-A145-A527-5C21C4D461B6}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{34DC8BA2-A9BE-BD4E-9E13-9A0DA9F2703B}"/>
+    <hyperlink ref="A10" r:id="rId20" xr:uid="{62249374-C2B1-F048-A086-6F1C7F51FB03}"/>
+    <hyperlink ref="A1" r:id="rId21" xr:uid="{9CA37BC7-2C97-1C4D-8773-BDCA25F3957C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
